--- a/Report.xlsx
+++ b/Report.xlsx
@@ -3302,9 +3302,7 @@
         </is>
       </c>
       <c r="D11" s="322" t="n"/>
-      <c r="E11" s="369" t="n">
-        <v>44700</v>
-      </c>
+      <c r="E11" s="369" t="n"/>
       <c r="F11" s="325" t="n"/>
       <c r="H11" s="13" t="n"/>
       <c r="I11" s="13" t="n"/>
@@ -4109,7 +4107,7 @@
       <c r="G3" s="322" t="n"/>
       <c r="H3" s="193" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ No          ■  Yes </t>
+          <t xml:space="preserve">■ No          □  Yes </t>
         </is>
       </c>
       <c r="I3" s="324" t="n"/>
@@ -4129,7 +4127,7 @@
       <c r="G4" s="326" t="n"/>
       <c r="H4" s="187" t="inlineStr">
         <is>
-          <t>□ No          □  Yes</t>
+          <t xml:space="preserve">■ No          □  Yes </t>
         </is>
       </c>
       <c r="I4" s="328" t="n"/>
@@ -4217,7 +4215,7 @@
       <c r="G8" s="322" t="n"/>
       <c r="H8" s="192" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="I8" s="324" t="n"/>
@@ -4242,7 +4240,7 @@
       <c r="G9" s="322" t="n"/>
       <c r="H9" s="192" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="I9" s="324" t="n"/>
@@ -4272,7 +4270,7 @@
       <c r="G10" s="322" t="n"/>
       <c r="H10" s="192" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="I10" s="324" t="n"/>
@@ -4302,7 +4300,7 @@
       <c r="G11" s="326" t="n"/>
       <c r="H11" s="186" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="I11" s="328" t="n"/>
@@ -4331,14 +4329,14 @@
     <row r="14" ht="23.4" customFormat="1" customHeight="1" s="21">
       <c r="B14" s="153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used Channel Calibration Tool Management No : QC-설비-                                                                                    </t>
+          <t xml:space="preserve">Used Channel Calibration Tool Management No : </t>
         </is>
       </c>
     </row>
     <row r="15" ht="23.4" customFormat="1" customHeight="1" s="21" thickBot="1">
       <c r="B15" s="153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used Barcode Carrier Management No : QC-설비-                                                                                                                           </t>
+          <t xml:space="preserve">Used Barcode Carrier Management No : </t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -1339,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="370">
+  <cellXfs count="372">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2363,6 +2363,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="81" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3257,7 +3263,7 @@
       </c>
       <c r="K8" s="78" t="inlineStr">
         <is>
-          <t>5CG8425X6Z</t>
+          <t>5CG9171HX1</t>
         </is>
       </c>
       <c r="L8" s="326" t="n"/>
@@ -3318,7 +3324,9 @@
         </is>
       </c>
       <c r="D12" s="326" t="n"/>
-      <c r="E12" s="78" t="n"/>
+      <c r="E12" s="370" t="n">
+        <v>44742</v>
+      </c>
       <c r="F12" s="326" t="n"/>
       <c r="H12" s="13" t="n"/>
       <c r="I12" s="13" t="n"/>
@@ -3344,11 +3352,7 @@
       </c>
       <c r="C14" s="320" t="n"/>
       <c r="D14" s="321" t="n"/>
-      <c r="E14" s="134" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
+      <c r="E14" s="134" t="inlineStr"/>
       <c r="F14" s="321" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="H14" s="13" t="n"/>
@@ -3364,11 +3368,7 @@
       </c>
       <c r="C15" s="324" t="n"/>
       <c r="D15" s="322" t="n"/>
-      <c r="E15" s="76" t="inlineStr">
-        <is>
-          <t>Hamilton</t>
-        </is>
-      </c>
+      <c r="E15" s="76" t="inlineStr"/>
       <c r="F15" s="322" t="n"/>
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="13" t="n"/>
@@ -3389,11 +3389,7 @@
         </is>
       </c>
       <c r="D16" s="322" t="n"/>
-      <c r="E16" s="76" t="inlineStr">
-        <is>
-          <t>PX_Pipette</t>
-        </is>
-      </c>
+      <c r="E16" s="76" t="inlineStr"/>
       <c r="F16" s="322" t="n"/>
       <c r="G16" s="37" t="n"/>
       <c r="H16" s="37" t="n"/>
@@ -3409,11 +3405,7 @@
         </is>
       </c>
       <c r="D17" s="322" t="n"/>
-      <c r="E17" s="76" t="inlineStr">
-        <is>
-          <t>X_Driven</t>
-        </is>
-      </c>
+      <c r="E17" s="76" t="inlineStr"/>
       <c r="F17" s="322" t="n"/>
       <c r="G17" s="37" t="n"/>
       <c r="H17" s="37" t="n"/>
@@ -3429,11 +3421,7 @@
         </is>
       </c>
       <c r="D18" s="326" t="n"/>
-      <c r="E18" s="78" t="inlineStr">
-        <is>
-          <t>Master</t>
-        </is>
-      </c>
+      <c r="E18" s="78" t="inlineStr"/>
       <c r="F18" s="326" t="n"/>
       <c r="G18" s="37" t="n"/>
       <c r="H18" s="37" t="n"/>
@@ -4389,7 +4377,7 @@
       <c r="G17" s="324" t="n"/>
       <c r="H17" s="76" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Left :                                              Right :              </t>
+          <t xml:space="preserve">     Left :      None               Right :     None       </t>
         </is>
       </c>
       <c r="I17" s="324" t="n"/>
@@ -4475,15 +4463,15 @@
       </c>
       <c r="I20" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J20" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K20" s="49" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K20" s="49" t="inlineStr"/>
     </row>
     <row r="21" ht="19.95" customFormat="1" customHeight="1" s="21">
       <c r="B21" s="304" t="n"/>
@@ -4503,15 +4491,15 @@
       </c>
       <c r="I21" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J21" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K21" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K21" s="50" t="inlineStr"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" s="298">
       <c r="B22" s="304" t="n"/>
@@ -4531,15 +4519,15 @@
       </c>
       <c r="I22" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J22" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K22" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K22" s="50" t="inlineStr"/>
     </row>
     <row r="23" ht="19.95" customHeight="1" s="298">
       <c r="B23" s="304" t="n"/>
@@ -4559,15 +4547,15 @@
       </c>
       <c r="I23" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J23" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K23" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K23" s="50" t="inlineStr"/>
     </row>
     <row r="24" ht="19.95" customHeight="1" s="298">
       <c r="B24" s="304" t="n"/>
@@ -4587,15 +4575,15 @@
       </c>
       <c r="I24" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J24" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K24" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K24" s="50" t="inlineStr"/>
     </row>
     <row r="25" ht="19.95" customHeight="1" s="298">
       <c r="B25" s="304" t="n"/>
@@ -4615,15 +4603,15 @@
       </c>
       <c r="I25" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J25" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K25" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K25" s="50" t="inlineStr"/>
     </row>
     <row r="26" ht="19.95" customHeight="1" s="298">
       <c r="B26" s="304" t="n"/>
@@ -4643,15 +4631,15 @@
       </c>
       <c r="I26" s="47" t="inlineStr">
         <is>
-          <t>X :              //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J26" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K26" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K26" s="50" t="inlineStr"/>
     </row>
     <row r="27" ht="19.95" customHeight="1" s="298">
       <c r="B27" s="304" t="n"/>
@@ -4671,15 +4659,15 @@
       </c>
       <c r="I27" s="47" t="inlineStr">
         <is>
-          <t>X :               //</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J27" s="47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Y : </t>
-        </is>
-      </c>
-      <c r="K27" s="50" t="n"/>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K27" s="50" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="B28" s="304" t="n"/>
@@ -4723,7 +4711,7 @@
       </c>
       <c r="I29" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J29" s="324" t="n"/>
@@ -4743,7 +4731,7 @@
       <c r="H30" s="310" t="n"/>
       <c r="I30" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J30" s="324" t="n"/>
@@ -4767,7 +4755,7 @@
       </c>
       <c r="I31" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J31" s="324" t="n"/>
@@ -4787,7 +4775,7 @@
       <c r="H32" s="310" t="n"/>
       <c r="I32" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J32" s="324" t="n"/>
@@ -4811,7 +4799,7 @@
       </c>
       <c r="I33" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J33" s="324" t="n"/>
@@ -4831,7 +4819,7 @@
       <c r="H34" s="310" t="n"/>
       <c r="I34" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J34" s="324" t="n"/>
@@ -4855,7 +4843,7 @@
       </c>
       <c r="I35" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J35" s="324" t="n"/>
@@ -4875,7 +4863,7 @@
       <c r="H36" s="310" t="n"/>
       <c r="I36" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J36" s="324" t="n"/>
@@ -4899,7 +4887,7 @@
       </c>
       <c r="I37" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J37" s="324" t="n"/>
@@ -4919,7 +4907,7 @@
       <c r="H38" s="310" t="n"/>
       <c r="I38" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J38" s="324" t="n"/>
@@ -4943,7 +4931,7 @@
       </c>
       <c r="I39" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J39" s="324" t="n"/>
@@ -4963,7 +4951,7 @@
       <c r="H40" s="310" t="n"/>
       <c r="I40" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J40" s="324" t="n"/>
@@ -4987,7 +4975,7 @@
       </c>
       <c r="I41" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J41" s="324" t="n"/>
@@ -5007,7 +4995,7 @@
       <c r="H42" s="310" t="n"/>
       <c r="I42" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J42" s="324" t="n"/>
@@ -5031,7 +5019,7 @@
       </c>
       <c r="I43" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :                                            Y : </t>
+          <t xml:space="preserve">X :    None                                Y : None </t>
         </is>
       </c>
       <c r="J43" s="324" t="n"/>
@@ -5051,7 +5039,7 @@
       <c r="H44" s="310" t="n"/>
       <c r="I44" s="113" t="inlineStr">
         <is>
-          <t>Z :</t>
+          <t>Z : None</t>
         </is>
       </c>
       <c r="J44" s="324" t="n"/>
@@ -5071,7 +5059,7 @@
       <c r="D45" s="322" t="n"/>
       <c r="E45" s="136" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="F45" s="324" t="n"/>
@@ -5095,7 +5083,7 @@
       <c r="D46" s="326" t="n"/>
       <c r="E46" s="110" t="inlineStr">
         <is>
-          <t>□ Pass          □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="F46" s="328" t="n"/>
@@ -5351,7 +5339,7 @@
       <c r="K3" s="322" t="n"/>
       <c r="L3" s="76" t="inlineStr">
         <is>
-          <t>□ Pass      □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M3" s="334" t="n"/>
@@ -5395,7 +5383,7 @@
       <c r="K5" s="322" t="n"/>
       <c r="L5" s="201" t="inlineStr">
         <is>
-          <t>□ Pass      □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M5" s="334" t="n"/>
@@ -5439,7 +5427,7 @@
       <c r="K7" s="322" t="n"/>
       <c r="L7" s="201" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M7" s="322" t="n"/>
@@ -5473,7 +5461,7 @@
       <c r="K8" s="322" t="n"/>
       <c r="L8" s="202" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M8" s="348" t="n"/>
@@ -5497,8 +5485,8 @@
     </row>
     <row r="10">
       <c r="B10" s="332" t="n"/>
-      <c r="C10" s="54" t="n"/>
-      <c r="D10" s="55" t="n"/>
+      <c r="C10" s="371" t="inlineStr"/>
+      <c r="D10" s="307" t="n"/>
       <c r="E10" s="340" t="n"/>
       <c r="F10" s="338" t="n"/>
       <c r="G10" s="339" t="n"/>
@@ -5515,8 +5503,8 @@
     </row>
     <row r="11">
       <c r="B11" s="332" t="n"/>
-      <c r="C11" s="56" t="n"/>
-      <c r="D11" s="57" t="n"/>
+      <c r="C11" s="340" t="n"/>
+      <c r="D11" s="339" t="n"/>
       <c r="E11" s="347" t="inlineStr">
         <is>
           <t>Shaking RPM</t>
@@ -5534,7 +5522,7 @@
       <c r="K11" s="322" t="n"/>
       <c r="L11" s="201" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M11" s="322" t="n"/>
@@ -5560,7 +5548,7 @@
       <c r="K12" s="322" t="n"/>
       <c r="L12" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M12" s="322" t="n"/>
@@ -5581,7 +5569,7 @@
       <c r="K13" s="322" t="n"/>
       <c r="L13" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M13" s="322" t="n"/>
@@ -5602,7 +5590,7 @@
       <c r="K14" s="322" t="n"/>
       <c r="L14" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M14" s="322" t="n"/>
@@ -5624,7 +5612,7 @@
       <c r="K15" s="322" t="n"/>
       <c r="L15" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M15" s="322" t="n"/>
@@ -5669,7 +5657,7 @@
       <c r="K16" s="322" t="n"/>
       <c r="L16" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M16" s="322" t="n"/>
@@ -5694,7 +5682,7 @@
       <c r="K17" s="322" t="n"/>
       <c r="L17" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M17" s="322" t="n"/>
@@ -5727,7 +5715,7 @@
       <c r="K18" s="322" t="n"/>
       <c r="L18" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M18" s="322" t="n"/>
@@ -5752,7 +5740,7 @@
       <c r="K19" s="322" t="n"/>
       <c r="L19" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M19" s="322" t="n"/>
@@ -5790,7 +5778,7 @@
       <c r="K20" s="322" t="n"/>
       <c r="L20" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M20" s="322" t="n"/>
@@ -5815,7 +5803,7 @@
       <c r="K21" s="322" t="n"/>
       <c r="L21" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M21" s="322" t="n"/>
@@ -5848,7 +5836,7 @@
       <c r="K22" s="322" t="n"/>
       <c r="L22" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M22" s="322" t="n"/>
@@ -5873,7 +5861,7 @@
       <c r="K23" s="322" t="n"/>
       <c r="L23" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M23" s="322" t="n"/>
@@ -5911,7 +5899,7 @@
       <c r="K24" s="322" t="n"/>
       <c r="L24" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M24" s="322" t="n"/>
@@ -5936,7 +5924,7 @@
       <c r="K25" s="322" t="n"/>
       <c r="L25" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M25" s="322" t="n"/>
@@ -5969,7 +5957,7 @@
       <c r="K26" s="322" t="n"/>
       <c r="L26" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M26" s="322" t="n"/>
@@ -5994,7 +5982,7 @@
       <c r="K27" s="322" t="n"/>
       <c r="L27" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M27" s="322" t="n"/>
@@ -6032,7 +6020,7 @@
       <c r="K28" s="322" t="n"/>
       <c r="L28" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M28" s="322" t="n"/>
@@ -6057,7 +6045,7 @@
       <c r="K29" s="322" t="n"/>
       <c r="L29" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M29" s="322" t="n"/>
@@ -6090,7 +6078,7 @@
       <c r="K30" s="322" t="n"/>
       <c r="L30" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M30" s="322" t="n"/>
@@ -6115,7 +6103,7 @@
       <c r="K31" s="322" t="n"/>
       <c r="L31" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M31" s="322" t="n"/>
@@ -6153,7 +6141,7 @@
       <c r="K32" s="322" t="n"/>
       <c r="L32" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M32" s="322" t="n"/>
@@ -6178,7 +6166,7 @@
       <c r="K33" s="322" t="n"/>
       <c r="L33" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M33" s="322" t="n"/>
@@ -6211,7 +6199,7 @@
       <c r="K34" s="322" t="n"/>
       <c r="L34" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M34" s="322" t="n"/>
@@ -6236,7 +6224,7 @@
       <c r="K35" s="322" t="n"/>
       <c r="L35" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M35" s="322" t="n"/>
@@ -6274,7 +6262,7 @@
       <c r="K36" s="322" t="n"/>
       <c r="L36" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M36" s="322" t="n"/>
@@ -6299,7 +6287,7 @@
       <c r="K37" s="322" t="n"/>
       <c r="L37" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M37" s="322" t="n"/>
@@ -6332,7 +6320,7 @@
       <c r="K38" s="322" t="n"/>
       <c r="L38" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M38" s="322" t="n"/>
@@ -6357,7 +6345,7 @@
       <c r="K39" s="322" t="n"/>
       <c r="L39" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M39" s="322" t="n"/>
@@ -6395,7 +6383,7 @@
       <c r="K40" s="322" t="n"/>
       <c r="L40" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M40" s="322" t="n"/>
@@ -6420,7 +6408,7 @@
       <c r="K41" s="322" t="n"/>
       <c r="L41" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M41" s="322" t="n"/>
@@ -6453,7 +6441,7 @@
       <c r="K42" s="322" t="n"/>
       <c r="L42" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M42" s="322" t="n"/>
@@ -6478,7 +6466,7 @@
       <c r="K43" s="322" t="n"/>
       <c r="L43" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M43" s="322" t="n"/>
@@ -6516,7 +6504,7 @@
       <c r="K44" s="322" t="n"/>
       <c r="L44" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M44" s="322" t="n"/>
@@ -6541,7 +6529,7 @@
       <c r="K45" s="322" t="n"/>
       <c r="L45" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M45" s="322" t="n"/>
@@ -6574,7 +6562,7 @@
       <c r="K46" s="322" t="n"/>
       <c r="L46" s="76" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M46" s="322" t="n"/>
@@ -6600,7 +6588,7 @@
       <c r="K47" s="326" t="n"/>
       <c r="L47" s="78" t="inlineStr">
         <is>
-          <t>□ Pass     □  Fail</t>
+          <t>■ Pass          □  Fail</t>
         </is>
       </c>
       <c r="M47" s="326" t="n"/>
@@ -6654,7 +6642,7 @@
       <c r="K51" s="322" t="n"/>
       <c r="L51" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M51" s="325" t="n"/>
@@ -6676,7 +6664,7 @@
       <c r="K52" s="339" t="n"/>
       <c r="L52" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M52" s="325" t="n"/>
@@ -6698,7 +6686,7 @@
       <c r="K53" s="322" t="n"/>
       <c r="L53" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M53" s="325" t="n"/>
@@ -6720,7 +6708,7 @@
       <c r="K54" s="322" t="n"/>
       <c r="L54" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M54" s="325" t="n"/>
@@ -6742,7 +6730,7 @@
       <c r="K55" s="322" t="n"/>
       <c r="L55" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M55" s="325" t="n"/>
@@ -6764,7 +6752,7 @@
       <c r="K56" s="322" t="n"/>
       <c r="L56" s="359" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M56" s="325" t="n"/>
@@ -6786,7 +6774,7 @@
       <c r="K57" s="326" t="n"/>
       <c r="L57" s="362" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="M57" s="329" t="n"/>
@@ -6825,7 +6813,7 @@
       <c r="M60" s="326" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="157">
     <mergeCell ref="B56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="B57:K57"/>
@@ -6982,6 +6970,7 @@
     <mergeCell ref="E3:K3"/>
     <mergeCell ref="L3:M4"/>
     <mergeCell ref="E4:K4"/>
+    <mergeCell ref="C10:D11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2362204724409449" right="0.2362204724409449" top="0.3543307086614174" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
@@ -7079,7 +7068,11 @@
           <t xml:space="preserve">   STARlet Serial number :</t>
         </is>
       </c>
-      <c r="J4" s="65" t="n"/>
+      <c r="J4" s="65" t="inlineStr">
+        <is>
+          <t>5CG9171HX1</t>
+        </is>
+      </c>
       <c r="K4" s="65" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="298" thickBot="1">
@@ -7154,7 +7147,7 @@
       </c>
       <c r="K7" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7182,7 +7175,7 @@
       </c>
       <c r="K8" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7210,7 +7203,7 @@
       </c>
       <c r="K9" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7238,7 +7231,7 @@
       </c>
       <c r="K10" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7266,7 +7259,7 @@
       </c>
       <c r="K11" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7294,7 +7287,7 @@
       </c>
       <c r="K12" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7322,7 +7315,7 @@
       </c>
       <c r="K13" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7350,7 +7343,7 @@
       </c>
       <c r="K14" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7378,7 +7371,7 @@
       </c>
       <c r="K15" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7406,7 +7399,7 @@
       </c>
       <c r="K16" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7434,7 +7427,7 @@
       </c>
       <c r="K17" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7460,7 +7453,7 @@
       </c>
       <c r="K18" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7481,7 @@
       </c>
       <c r="K19" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7507,7 @@
       </c>
       <c r="K20" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
       <c r="L20" s="21" t="n"/>
@@ -7541,7 +7534,7 @@
       </c>
       <c r="K21" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
       <c r="L21" s="37" t="n"/>
@@ -7568,7 +7561,7 @@
       </c>
       <c r="K22" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7594,7 +7587,7 @@
       </c>
       <c r="K23" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7620,7 +7613,7 @@
       </c>
       <c r="K24" s="71" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7664,7 +7657,7 @@
       </c>
       <c r="K26" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7692,7 +7685,7 @@
       </c>
       <c r="K27" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7720,7 +7713,7 @@
       </c>
       <c r="K28" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7748,7 +7741,7 @@
       </c>
       <c r="K29" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7776,7 +7769,7 @@
       </c>
       <c r="K30" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7802,7 +7795,7 @@
       </c>
       <c r="K31" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7828,7 +7821,7 @@
       </c>
       <c r="K32" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7834,7 @@
       </c>
       <c r="D33" s="285" t="inlineStr">
         <is>
-          <t>Teaching Needle(8ea)  [LOT:                                          ]</t>
+          <t>Teaching Needle(8ea)  [LOT:                      ]</t>
         </is>
       </c>
       <c r="E33" s="324" t="n"/>
@@ -7854,7 +7847,7 @@
       </c>
       <c r="K33" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7882,7 +7875,7 @@
       </c>
       <c r="K34" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7903,7 @@
       </c>
       <c r="K35" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7938,7 +7931,7 @@
       </c>
       <c r="K36" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7966,7 +7959,7 @@
       </c>
       <c r="K37" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -7992,7 +7985,7 @@
       </c>
       <c r="K38" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8018,7 +8011,7 @@
       </c>
       <c r="K39" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8044,7 +8037,7 @@
       </c>
       <c r="K40" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8072,7 +8065,7 @@
       </c>
       <c r="K41" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8100,7 +8093,7 @@
       </c>
       <c r="K42" s="71" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8144,7 +8137,7 @@
       </c>
       <c r="K44" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8170,7 +8163,7 @@
       </c>
       <c r="K45" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8196,7 +8189,7 @@
       </c>
       <c r="K46" s="71" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8240,7 +8233,7 @@
       </c>
       <c r="K48" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8266,7 +8259,7 @@
       </c>
       <c r="K49" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8292,7 +8285,7 @@
       </c>
       <c r="K50" s="73" t="inlineStr">
         <is>
-          <t xml:space="preserve">□ </t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8320,7 +8313,7 @@
       </c>
       <c r="K51" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8346,7 +8339,7 @@
       </c>
       <c r="K52" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8370,7 +8363,7 @@
       </c>
       <c r="K53" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8394,7 +8387,7 @@
       </c>
       <c r="K54" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8420,7 +8413,7 @@
       </c>
       <c r="K55" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8448,7 +8441,7 @@
       </c>
       <c r="K56" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8476,7 +8469,7 @@
       </c>
       <c r="K57" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8502,7 +8495,7 @@
       </c>
       <c r="K58" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8521,7 @@
       </c>
       <c r="K59" s="73" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8541,7 +8534,7 @@
       </c>
       <c r="D60" s="285" t="inlineStr">
         <is>
-          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :                                       ]</t>
+          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :                        ]</t>
         </is>
       </c>
       <c r="E60" s="324" t="n"/>
@@ -8554,7 +8547,7 @@
       </c>
       <c r="K60" s="62" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8582,7 +8575,7 @@
       </c>
       <c r="K61" s="62" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>
@@ -8610,7 +8603,7 @@
       </c>
       <c r="K62" s="71" t="inlineStr">
         <is>
-          <t>□</t>
+          <t>■</t>
         </is>
       </c>
     </row>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -3263,7 +3263,7 @@
       </c>
       <c r="K8" s="78" t="inlineStr">
         <is>
-          <t>5CG9171HX1</t>
+          <t>5CG8492B2Y</t>
         </is>
       </c>
       <c r="L8" s="326" t="n"/>
@@ -3286,7 +3286,7 @@
       <c r="D10" s="321" t="n"/>
       <c r="E10" s="141" t="inlineStr">
         <is>
-          <t>이신후</t>
+          <t>테스트</t>
         </is>
       </c>
       <c r="F10" s="331" t="n"/>
@@ -3308,7 +3308,9 @@
         </is>
       </c>
       <c r="D11" s="322" t="n"/>
-      <c r="E11" s="369" t="n"/>
+      <c r="E11" s="369" t="n">
+        <v>44734</v>
+      </c>
       <c r="F11" s="325" t="n"/>
       <c r="H11" s="13" t="n"/>
       <c r="I11" s="13" t="n"/>
@@ -3325,7 +3327,7 @@
       </c>
       <c r="D12" s="326" t="n"/>
       <c r="E12" s="370" t="n">
-        <v>44742</v>
+        <v>44740</v>
       </c>
       <c r="F12" s="326" t="n"/>
       <c r="H12" s="13" t="n"/>
@@ -3352,7 +3354,11 @@
       </c>
       <c r="C14" s="320" t="n"/>
       <c r="D14" s="321" t="n"/>
-      <c r="E14" s="134" t="inlineStr"/>
+      <c r="E14" s="134" t="inlineStr">
+        <is>
+          <t>ver_hamilton</t>
+        </is>
+      </c>
       <c r="F14" s="321" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="H14" s="13" t="n"/>
@@ -3368,7 +3374,11 @@
       </c>
       <c r="C15" s="324" t="n"/>
       <c r="D15" s="322" t="n"/>
-      <c r="E15" s="76" t="inlineStr"/>
+      <c r="E15" s="76" t="inlineStr">
+        <is>
+          <t>Fv2</t>
+        </is>
+      </c>
       <c r="F15" s="322" t="n"/>
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="13" t="n"/>
@@ -3389,7 +3399,11 @@
         </is>
       </c>
       <c r="D16" s="322" t="n"/>
-      <c r="E16" s="76" t="inlineStr"/>
+      <c r="E16" s="76" t="inlineStr">
+        <is>
+          <t>Pipett1</t>
+        </is>
+      </c>
       <c r="F16" s="322" t="n"/>
       <c r="G16" s="37" t="n"/>
       <c r="H16" s="37" t="n"/>
@@ -3405,7 +3419,11 @@
         </is>
       </c>
       <c r="D17" s="322" t="n"/>
-      <c r="E17" s="76" t="inlineStr"/>
+      <c r="E17" s="76" t="inlineStr">
+        <is>
+          <t>Xo1</t>
+        </is>
+      </c>
       <c r="F17" s="322" t="n"/>
       <c r="G17" s="37" t="n"/>
       <c r="H17" s="37" t="n"/>
@@ -3421,7 +3439,11 @@
         </is>
       </c>
       <c r="D18" s="326" t="n"/>
-      <c r="E18" s="78" t="inlineStr"/>
+      <c r="E18" s="78" t="inlineStr">
+        <is>
+          <t>Co1</t>
+        </is>
+      </c>
       <c r="F18" s="326" t="n"/>
       <c r="G18" s="37" t="n"/>
       <c r="H18" s="37" t="n"/>
@@ -4317,14 +4339,14 @@
     <row r="14" ht="23.4" customFormat="1" customHeight="1" s="21">
       <c r="B14" s="153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used Channel Calibration Tool Management No : </t>
+          <t>Used Channel Calibration Tool Management No : QC-계측-001</t>
         </is>
       </c>
     </row>
     <row r="15" ht="23.4" customFormat="1" customHeight="1" s="21" thickBot="1">
       <c r="B15" s="153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Used Barcode Carrier Management No : </t>
+          <t>Used Barcode Carrier Management No : QC-계측-002</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4399,7 @@
       <c r="G17" s="324" t="n"/>
       <c r="H17" s="76" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Left :      None               Right :     None       </t>
+          <t xml:space="preserve">     Left :      11               Right :     222       </t>
         </is>
       </c>
       <c r="I17" s="324" t="n"/>
@@ -4399,7 +4421,9 @@
       </c>
       <c r="F18" s="324" t="n"/>
       <c r="G18" s="324" t="n"/>
-      <c r="H18" s="76" t="n"/>
+      <c r="H18" s="76" t="n">
+        <v>1</v>
+      </c>
       <c r="I18" s="324" t="n"/>
       <c r="J18" s="324" t="n"/>
       <c r="K18" s="322" t="n"/>
@@ -4463,15 +4487,19 @@
       </c>
       <c r="I20" s="47" t="inlineStr">
         <is>
-          <t>X :     None   //  None</t>
+          <t>X :     12   //  4</t>
         </is>
       </c>
       <c r="J20" s="47" t="inlineStr">
         <is>
-          <t>Y :   None</t>
-        </is>
-      </c>
-      <c r="K20" s="49" t="inlineStr"/>
+          <t>Y :   5</t>
+        </is>
+      </c>
+      <c r="K20" s="49" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="19.95" customFormat="1" customHeight="1" s="21">
       <c r="B21" s="304" t="n"/>
@@ -4491,15 +4519,19 @@
       </c>
       <c r="I21" s="47" t="inlineStr">
         <is>
-          <t>X :     None   //  None</t>
+          <t>X :     2   //  1</t>
         </is>
       </c>
       <c r="J21" s="47" t="inlineStr">
         <is>
-          <t>Y :   None</t>
-        </is>
-      </c>
-      <c r="K21" s="50" t="inlineStr"/>
+          <t>Y :   3</t>
+        </is>
+      </c>
+      <c r="K21" s="50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="19.95" customHeight="1" s="298">
       <c r="B22" s="304" t="n"/>
@@ -4519,7 +4551,7 @@
       </c>
       <c r="I22" s="47" t="inlineStr">
         <is>
-          <t>X :     None   //  None</t>
+          <t>X :     12   //  None</t>
         </is>
       </c>
       <c r="J22" s="47" t="inlineStr">
@@ -4711,7 +4743,7 @@
       </c>
       <c r="I29" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    None                                Y : 22 </t>
         </is>
       </c>
       <c r="J29" s="324" t="n"/>
@@ -4731,7 +4763,7 @@
       <c r="H30" s="310" t="n"/>
       <c r="I30" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 42</t>
         </is>
       </c>
       <c r="J30" s="324" t="n"/>
@@ -4755,7 +4787,7 @@
       </c>
       <c r="I31" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    51                                Y : None </t>
         </is>
       </c>
       <c r="J31" s="324" t="n"/>
@@ -5485,7 +5517,11 @@
     </row>
     <row r="10">
       <c r="B10" s="332" t="n"/>
-      <c r="C10" s="371" t="inlineStr"/>
+      <c r="C10" s="371" t="inlineStr">
+        <is>
+          <t>HHS</t>
+        </is>
+      </c>
       <c r="D10" s="307" t="n"/>
       <c r="E10" s="340" t="n"/>
       <c r="F10" s="338" t="n"/>
@@ -7070,7 +7106,7 @@
       </c>
       <c r="J4" s="65" t="inlineStr">
         <is>
-          <t>5CG9171HX1</t>
+          <t>5CG8492B2Y</t>
         </is>
       </c>
       <c r="K4" s="65" t="n"/>
@@ -7834,7 +7870,7 @@
       </c>
       <c r="D33" s="285" t="inlineStr">
         <is>
-          <t>Teaching Needle(8ea)  [LOT:                      ]</t>
+          <t>Teaching Needle(8ea)  [LOT:       8Lot               ]</t>
         </is>
       </c>
       <c r="E33" s="324" t="n"/>
@@ -8534,7 +8570,7 @@
       </c>
       <c r="D60" s="285" t="inlineStr">
         <is>
-          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :                        ]</t>
+          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :         Shaeker123               ]</t>
         </is>
       </c>
       <c r="E60" s="324" t="n"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -3261,11 +3261,7 @@
           <t>Serial No.</t>
         </is>
       </c>
-      <c r="K8" s="78" t="inlineStr">
-        <is>
-          <t>5CG8492B2Y</t>
-        </is>
-      </c>
+      <c r="K8" s="78" t="inlineStr"/>
       <c r="L8" s="326" t="n"/>
     </row>
     <row r="9" ht="22.2" customHeight="1" s="298" thickBot="1">
@@ -3284,11 +3280,7 @@
         </is>
       </c>
       <c r="D10" s="321" t="n"/>
-      <c r="E10" s="141" t="inlineStr">
-        <is>
-          <t>테스트</t>
-        </is>
-      </c>
+      <c r="E10" s="141" t="inlineStr"/>
       <c r="F10" s="331" t="n"/>
       <c r="H10" s="13" t="n"/>
       <c r="I10" s="13" t="n"/>
@@ -3308,9 +3300,7 @@
         </is>
       </c>
       <c r="D11" s="322" t="n"/>
-      <c r="E11" s="369" t="n">
-        <v>44734</v>
-      </c>
+      <c r="E11" s="369" t="n"/>
       <c r="F11" s="325" t="n"/>
       <c r="H11" s="13" t="n"/>
       <c r="I11" s="13" t="n"/>
@@ -3354,11 +3344,7 @@
       </c>
       <c r="C14" s="320" t="n"/>
       <c r="D14" s="321" t="n"/>
-      <c r="E14" s="134" t="inlineStr">
-        <is>
-          <t>ver_hamilton</t>
-        </is>
-      </c>
+      <c r="E14" s="134" t="inlineStr"/>
       <c r="F14" s="321" t="n"/>
       <c r="G14" s="13" t="n"/>
       <c r="H14" s="13" t="n"/>
@@ -3374,11 +3360,7 @@
       </c>
       <c r="C15" s="324" t="n"/>
       <c r="D15" s="322" t="n"/>
-      <c r="E15" s="76" t="inlineStr">
-        <is>
-          <t>Fv2</t>
-        </is>
-      </c>
+      <c r="E15" s="76" t="inlineStr"/>
       <c r="F15" s="322" t="n"/>
       <c r="G15" s="13" t="n"/>
       <c r="H15" s="13" t="n"/>
@@ -3399,11 +3381,7 @@
         </is>
       </c>
       <c r="D16" s="322" t="n"/>
-      <c r="E16" s="76" t="inlineStr">
-        <is>
-          <t>Pipett1</t>
-        </is>
-      </c>
+      <c r="E16" s="76" t="inlineStr"/>
       <c r="F16" s="322" t="n"/>
       <c r="G16" s="37" t="n"/>
       <c r="H16" s="37" t="n"/>
@@ -3419,11 +3397,7 @@
         </is>
       </c>
       <c r="D17" s="322" t="n"/>
-      <c r="E17" s="76" t="inlineStr">
-        <is>
-          <t>Xo1</t>
-        </is>
-      </c>
+      <c r="E17" s="76" t="inlineStr"/>
       <c r="F17" s="322" t="n"/>
       <c r="G17" s="37" t="n"/>
       <c r="H17" s="37" t="n"/>
@@ -3439,11 +3413,7 @@
         </is>
       </c>
       <c r="D18" s="326" t="n"/>
-      <c r="E18" s="78" t="inlineStr">
-        <is>
-          <t>Co1</t>
-        </is>
-      </c>
+      <c r="E18" s="78" t="inlineStr"/>
       <c r="F18" s="326" t="n"/>
       <c r="G18" s="37" t="n"/>
       <c r="H18" s="37" t="n"/>
@@ -4339,14 +4309,14 @@
     <row r="14" ht="23.4" customFormat="1" customHeight="1" s="21">
       <c r="B14" s="153" t="inlineStr">
         <is>
-          <t>Used Channel Calibration Tool Management No : QC-계측-001</t>
+          <t xml:space="preserve">Used Channel Calibration Tool Management No : </t>
         </is>
       </c>
     </row>
     <row r="15" ht="23.4" customFormat="1" customHeight="1" s="21" thickBot="1">
       <c r="B15" s="153" t="inlineStr">
         <is>
-          <t>Used Barcode Carrier Management No : QC-계측-002</t>
+          <t xml:space="preserve">Used Barcode Carrier Management No : </t>
         </is>
       </c>
     </row>
@@ -4399,7 +4369,7 @@
       <c r="G17" s="324" t="n"/>
       <c r="H17" s="76" t="inlineStr">
         <is>
-          <t xml:space="preserve">     Left :      11               Right :     222       </t>
+          <t xml:space="preserve">     Left :      None               Right :     None       </t>
         </is>
       </c>
       <c r="I17" s="324" t="n"/>
@@ -4421,9 +4391,7 @@
       </c>
       <c r="F18" s="324" t="n"/>
       <c r="G18" s="324" t="n"/>
-      <c r="H18" s="76" t="n">
-        <v>1</v>
-      </c>
+      <c r="H18" s="76" t="n"/>
       <c r="I18" s="324" t="n"/>
       <c r="J18" s="324" t="n"/>
       <c r="K18" s="322" t="n"/>
@@ -4487,19 +4455,15 @@
       </c>
       <c r="I20" s="47" t="inlineStr">
         <is>
-          <t>X :     12   //  4</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J20" s="47" t="inlineStr">
         <is>
-          <t>Y :   5</t>
-        </is>
-      </c>
-      <c r="K20" s="49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K20" s="49" t="inlineStr"/>
     </row>
     <row r="21" ht="19.95" customFormat="1" customHeight="1" s="21">
       <c r="B21" s="304" t="n"/>
@@ -4519,19 +4483,15 @@
       </c>
       <c r="I21" s="47" t="inlineStr">
         <is>
-          <t>X :     2   //  1</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J21" s="47" t="inlineStr">
         <is>
-          <t>Y :   3</t>
-        </is>
-      </c>
-      <c r="K21" s="50" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+          <t>Y :   None</t>
+        </is>
+      </c>
+      <c r="K21" s="50" t="inlineStr"/>
     </row>
     <row r="22" ht="19.95" customHeight="1" s="298">
       <c r="B22" s="304" t="n"/>
@@ -4551,7 +4511,7 @@
       </c>
       <c r="I22" s="47" t="inlineStr">
         <is>
-          <t>X :     12   //  None</t>
+          <t>X :     None   //  None</t>
         </is>
       </c>
       <c r="J22" s="47" t="inlineStr">
@@ -4743,7 +4703,7 @@
       </c>
       <c r="I29" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : 22 </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J29" s="324" t="n"/>
@@ -4763,7 +4723,7 @@
       <c r="H30" s="310" t="n"/>
       <c r="I30" s="113" t="inlineStr">
         <is>
-          <t>Z : 42</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J30" s="324" t="n"/>
@@ -4787,7 +4747,7 @@
       </c>
       <c r="I31" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    51                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J31" s="324" t="n"/>
@@ -4807,7 +4767,7 @@
       <c r="H32" s="310" t="n"/>
       <c r="I32" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J32" s="324" t="n"/>
@@ -4831,7 +4791,7 @@
       </c>
       <c r="I33" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J33" s="324" t="n"/>
@@ -4851,7 +4811,7 @@
       <c r="H34" s="310" t="n"/>
       <c r="I34" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J34" s="324" t="n"/>
@@ -4875,7 +4835,7 @@
       </c>
       <c r="I35" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J35" s="324" t="n"/>
@@ -4895,7 +4855,7 @@
       <c r="H36" s="310" t="n"/>
       <c r="I36" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J36" s="324" t="n"/>
@@ -4919,7 +4879,7 @@
       </c>
       <c r="I37" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J37" s="324" t="n"/>
@@ -4939,7 +4899,7 @@
       <c r="H38" s="310" t="n"/>
       <c r="I38" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J38" s="324" t="n"/>
@@ -4963,7 +4923,7 @@
       </c>
       <c r="I39" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J39" s="324" t="n"/>
@@ -4983,7 +4943,7 @@
       <c r="H40" s="310" t="n"/>
       <c r="I40" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J40" s="324" t="n"/>
@@ -5007,7 +4967,7 @@
       </c>
       <c r="I41" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J41" s="324" t="n"/>
@@ -5027,7 +4987,7 @@
       <c r="H42" s="310" t="n"/>
       <c r="I42" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J42" s="324" t="n"/>
@@ -5051,7 +5011,7 @@
       </c>
       <c r="I43" s="113" t="inlineStr">
         <is>
-          <t xml:space="preserve">X :    None                                Y : None </t>
+          <t xml:space="preserve">X :    0                                Y : 0 </t>
         </is>
       </c>
       <c r="J43" s="324" t="n"/>
@@ -5071,7 +5031,7 @@
       <c r="H44" s="310" t="n"/>
       <c r="I44" s="113" t="inlineStr">
         <is>
-          <t>Z : None</t>
+          <t>Z : 0</t>
         </is>
       </c>
       <c r="J44" s="324" t="n"/>
@@ -5115,7 +5075,7 @@
       <c r="D46" s="326" t="n"/>
       <c r="E46" s="110" t="inlineStr">
         <is>
-          <t>■ Pass          □  Fail</t>
+          <t>□ Pass          ■  Fail</t>
         </is>
       </c>
       <c r="F46" s="328" t="n"/>
@@ -5517,11 +5477,7 @@
     </row>
     <row r="10">
       <c r="B10" s="332" t="n"/>
-      <c r="C10" s="371" t="inlineStr">
-        <is>
-          <t>HHS</t>
-        </is>
-      </c>
+      <c r="C10" s="371" t="inlineStr"/>
       <c r="D10" s="307" t="n"/>
       <c r="E10" s="340" t="n"/>
       <c r="F10" s="338" t="n"/>
@@ -7104,11 +7060,7 @@
           <t xml:space="preserve">   STARlet Serial number :</t>
         </is>
       </c>
-      <c r="J4" s="65" t="inlineStr">
-        <is>
-          <t>5CG8492B2Y</t>
-        </is>
-      </c>
+      <c r="J4" s="65" t="inlineStr"/>
       <c r="K4" s="65" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="298" thickBot="1">
@@ -7870,7 +7822,7 @@
       </c>
       <c r="D33" s="285" t="inlineStr">
         <is>
-          <t>Teaching Needle(8ea)  [LOT:       8Lot               ]</t>
+          <t>Teaching Needle(8ea)  [LOT:       Teaching_Needles               ]</t>
         </is>
       </c>
       <c r="E33" s="324" t="n"/>
@@ -8570,7 +8522,7 @@
       </c>
       <c r="D60" s="285" t="inlineStr">
         <is>
-          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :         Shaeker123               ]</t>
+          <t>Hamiltion Heater &amp; Shaker (HHS)   [SN :                        ]</t>
         </is>
       </c>
       <c r="E60" s="324" t="n"/>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -3261,7 +3261,11 @@
           <t>Serial No.</t>
         </is>
       </c>
-      <c r="K8" s="78" t="inlineStr"/>
+      <c r="K8" s="78" t="inlineStr">
+        <is>
+          <t>5CG9171CF2</t>
+        </is>
+      </c>
       <c r="L8" s="326" t="n"/>
     </row>
     <row r="9" ht="22.2" customHeight="1" s="298" thickBot="1">
@@ -3300,7 +3304,9 @@
         </is>
       </c>
       <c r="D11" s="322" t="n"/>
-      <c r="E11" s="369" t="n"/>
+      <c r="E11" s="369" t="n">
+        <v>44726</v>
+      </c>
       <c r="F11" s="325" t="n"/>
       <c r="H11" s="13" t="n"/>
       <c r="I11" s="13" t="n"/>
@@ -3317,7 +3323,7 @@
       </c>
       <c r="D12" s="326" t="n"/>
       <c r="E12" s="370" t="n">
-        <v>44740</v>
+        <v>44756</v>
       </c>
       <c r="F12" s="326" t="n"/>
       <c r="H12" s="13" t="n"/>
@@ -7060,7 +7066,11 @@
           <t xml:space="preserve">   STARlet Serial number :</t>
         </is>
       </c>
-      <c r="J4" s="65" t="inlineStr"/>
+      <c r="J4" s="65" t="inlineStr">
+        <is>
+          <t>5CG9171CF2</t>
+        </is>
+      </c>
       <c r="K4" s="65" t="n"/>
     </row>
     <row r="5" ht="18" customHeight="1" s="298" thickBot="1">
